--- a/day02/data/df_all.xlsx
+++ b/day02/data/df_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>국적명</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>기준년월</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,6 +487,11 @@
           <t>일본</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,6 +515,11 @@
           <t>일본</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,6 +539,11 @@
         <v>299</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -543,6 +563,11 @@
         <v>54</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -566,6 +591,11 @@
           <t>중국</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -589,6 +619,11 @@
           <t>중국</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -612,6 +647,11 @@
           <t>일본</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -635,6 +675,11 @@
           <t>일본</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -658,6 +703,11 @@
           <t>중국</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -679,6 +729,11 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>중국</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2019-12</t>
         </is>
       </c>
     </row>
